--- a/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
+++ b/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupat\Desktop\data dictionari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\rental\car-rental-service\BM_DB\data dictionari\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,19 +21,15 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>Extra</t>
   </si>
   <si>
-    <t>uid</t>
-  </si>
-  <si>
     <t>profile_picture</t>
   </si>
   <si>
@@ -82,9 +78,6 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>bigint</t>
   </si>
   <si>
@@ -97,13 +90,7 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
   </si>
   <si>
     <t>DEFAULT_GENERATED</t>
@@ -474,135 +461,6 @@
   <dxfs count="46">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -657,7 +515,119 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -667,11 +637,31 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -681,24 +671,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -725,6 +697,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -743,6 +718,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -761,6 +739,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -779,6 +760,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -800,6 +784,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -807,96 +794,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -931,13 +828,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -958,6 +867,66 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -976,6 +945,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -994,6 +966,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1012,6 +987,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1033,13 +1011,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1055,78 +1042,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="41" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E18" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="37" dataDxfId="45"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="38" dataDxfId="44"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="39" dataDxfId="43"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="40"/>
+    <tableColumn id="1" name="uid"/>
+    <tableColumn id="2" name="int"/>
+    <tableColumn id="3" name="-"/>
+    <tableColumn id="4" name="Primary Key"/>
+    <tableColumn id="5" name="AUTO_INCREMENT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4:E22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="28" dataDxfId="36"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="29" dataDxfId="35"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="30" dataDxfId="34"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="31" dataDxfId="33"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A4:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4:E22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="36">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="26"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="15"/>
-    <tableColumn id="4" name="Size" dataDxfId="13"/>
-    <tableColumn id="5" name="Key" dataDxfId="14"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="29" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A5:E23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A4:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="27">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="19" dataDxfId="25"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="20" dataDxfId="18"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="21" dataDxfId="16"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="22" dataDxfId="17"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="26"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="25"/>
+    <tableColumn id="4" name="Size" dataDxfId="24"/>
+    <tableColumn id="5" name="Key" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A5:E23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="10"/>
-    <tableColumn id="4" name="Size" dataDxfId="8"/>
-    <tableColumn id="5" name="Key" dataDxfId="9"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="18" dataDxfId="17"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="14" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B5:F9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="12">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" headerRowDxfId="0"/>
-    <tableColumn id="2" name="COLUMN NAME" headerRowDxfId="1"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="11"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="10"/>
+    <tableColumn id="4" name="Size" dataDxfId="9"/>
+    <tableColumn id="5" name="Key" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B5:F9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" headerRowDxfId="4"/>
+    <tableColumn id="2" name="COLUMN NAME" headerRowDxfId="3"/>
     <tableColumn id="3" name="DATA TYPE" headerRowDxfId="2"/>
-    <tableColumn id="4" name="SIZE" headerRowDxfId="3"/>
-    <tableColumn id="5" name="KEY" headerRowDxfId="4"/>
+    <tableColumn id="4" name="SIZE" headerRowDxfId="1"/>
+    <tableColumn id="5" name="KEY" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1423,14 +1423,14 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="13" width="11" customWidth="1"/>
     <col min="14" max="103" width="12" customWidth="1"/>
@@ -1441,298 +1441,284 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1741,8 +1727,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,68 +1743,68 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10">
         <v>255</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10">
         <v>255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" t="b">
         <f>" " &amp; A1
@@ -1829,40 +1815,40 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
         <v>255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <f>Sheet2!F10</f>
@@ -1871,134 +1857,134 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10">
         <v>255</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10">
         <v>255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10">
         <v>255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10">
         <v>255</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10">
         <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="10">
         <v>255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2017,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,244 +2022,244 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10">
         <v>100</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10">
         <v>255</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10">
         <v>255</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>24</v>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10">
         <v>255</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="8" t="s">
-        <v>24</v>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10">
         <v>255</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="10">
         <v>255</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>24</v>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="8" t="s">
-        <v>24</v>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2275,7 @@
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,66 +2290,66 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10">
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2365,7 @@
   <dimension ref="A5:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,250 +2380,250 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10">
         <v>255</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10">
         <v>255</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10">
         <v>255</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10">
         <v>255</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
-        <v>24</v>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10">
         <v>255</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="8" t="s">
-        <v>24</v>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="10">
         <v>255</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10">
         <v>255</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>24</v>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="10">
         <v>255</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="8" t="s">
-        <v>24</v>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="8" t="s">
-        <v>24</v>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" s="10">
         <v>255</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2639,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,82 +2654,82 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10">
         <v>255</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10">
         <v>255</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10">
         <v>255</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2745,7 @@
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,69 +2759,69 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>255</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>255</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>255</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
+++ b/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\rental\car-rental-service\BM_DB\data dictionari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\car rental service\BM_DB\data dictionari\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
-  <si>
-    <t>Extra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="97">
   <si>
     <t>profile_picture</t>
   </si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>DEFAULT_GENERATED</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -328,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +338,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +364,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -423,13 +431,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,15 +447,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,7 +1435,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,277 +1453,241 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,8 +1703,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,69 +1718,69 @@
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10">
-        <v>255</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>255</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10">
-        <v>255</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>255</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H8" t="b">
         <f>" " &amp; A1
@@ -1815,40 +1791,40 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10">
-        <v>255</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>255</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F11">
         <f>Sheet2!F10</f>
@@ -1857,138 +1833,138 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>255</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="8">
+        <v>255</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10">
-        <v>255</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8">
+        <v>255</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="10">
-        <v>255</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
+        <v>255</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10">
-        <v>255</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>255</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="10">
-        <v>255</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D20" s="8">
+        <v>255</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="10">
-        <v>255</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="8">
+        <v>255</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2003,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +1988,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2021,245 +1997,245 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
         <v>100</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="10">
-        <v>255</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
+        <v>255</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10">
-        <v>255</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10">
-        <v>255</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="8">
+        <v>255</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="10">
-        <v>255</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="8">
+        <v>255</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="10">
-        <v>255</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>255</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2251,7 @@
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,73 +2259,73 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2341,7 @@
   <dimension ref="A5:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,257 +2349,257 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10">
-        <v>255</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>255</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10">
-        <v>255</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>255</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>255</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="8">
+        <v>255</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10">
-        <v>255</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8">
+        <v>255</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10">
-        <v>255</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="10">
-        <v>255</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="8">
+        <v>255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="10">
-        <v>255</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="8">
+        <v>255</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="10">
-        <v>255</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>255</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10">
-        <v>255</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D23" s="8">
+        <v>255</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2615,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,95 +2623,96 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="10">
-        <v>255</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="8">
+        <v>255</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10">
-        <v>255</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>255</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10">
-        <v>255</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>255</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2744,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,77 +2734,78 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>255</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>255</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>255</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
+++ b/BM_DB/data dictionari/reguser_data_dictionary1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\car rental service\BM_DB\data dictionari\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -292,8 +297,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,9 +451,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -470,7 +472,7 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -504,7 +506,7 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -536,7 +538,7 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -568,7 +570,7 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -647,25 +649,25 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -683,10 +685,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -704,10 +706,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -725,10 +727,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -746,10 +748,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -767,22 +769,22 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -800,7 +802,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -832,10 +834,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -853,10 +855,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -874,10 +876,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -895,7 +897,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -913,7 +915,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -931,10 +933,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -952,10 +954,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -973,10 +975,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -994,10 +996,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1015,7 +1017,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,7 +1041,7 @@
     <tableColumn id="1" name="uid"/>
     <tableColumn id="2" name="int"/>
     <tableColumn id="3" name="-"/>
-    <tableColumn id="4" name="Primary Key" dataDxfId="0"/>
+    <tableColumn id="4" name="Primary Key" dataDxfId="46"/>
     <tableColumn id="5" name="AUTO_INCREMENT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1044,78 +1049,78 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:E21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="44" dataDxfId="43"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="40" dataDxfId="39"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="38"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4:E22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4:E22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="36">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="36" dataDxfId="35"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="34" dataDxfId="33"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="32" dataDxfId="31"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="29" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A4:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A4:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="27">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="27"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="26"/>
-    <tableColumn id="4" name="Size" dataDxfId="25"/>
-    <tableColumn id="5" name="Key" dataDxfId="24"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="26"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="25"/>
+    <tableColumn id="4" name="Size" dataDxfId="24"/>
+    <tableColumn id="5" name="Key" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A5:E23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A5:E23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="3" name="Data Type" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="4" name="Size" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="5" name="Key" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="2" name="Column Name" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="3" name="Data Type" headerRowDxfId="18" dataDxfId="17"/>
+    <tableColumn id="4" name="Size" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="5" name="Key" headerRowDxfId="14" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:E8" headerRowCount="0" totalsRowShown="0" dataDxfId="12">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Size" dataDxfId="10"/>
-    <tableColumn id="5" name="Key" dataDxfId="9"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="11"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="10"/>
+    <tableColumn id="4" name="Size" dataDxfId="9"/>
+    <tableColumn id="5" name="Key" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B5:F9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B5:F9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" headerRowDxfId="5"/>
-    <tableColumn id="2" name="COLUMN NAME" headerRowDxfId="4"/>
-    <tableColumn id="3" name="DATA TYPE" headerRowDxfId="3"/>
-    <tableColumn id="4" name="SIZE" headerRowDxfId="2"/>
-    <tableColumn id="5" name="KEY" headerRowDxfId="1"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="4"/>
+    <tableColumn id="2" name="COLUMN NAME" headerRowDxfId="3"/>
+    <tableColumn id="3" name="DATA TYPE" headerRowDxfId="2"/>
+    <tableColumn id="4" name="SIZE" headerRowDxfId="1"/>
+    <tableColumn id="5" name="KEY" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1164,7 +1169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,9 +1201,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,6 +1236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1405,15 +1412,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="4" width="18.140625" customWidth="1"/>
@@ -1426,7 +1433,7 @@
     <col min="10005" max="16384" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>72</v>
       </c>
@@ -1441,7 +1448,7 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -1470,7 +1477,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1497,7 +1504,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1526,7 +1533,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1546,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1554,7 +1561,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1569,7 +1576,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1584,7 +1591,7 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1597,7 +1604,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1619,7 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -1627,7 +1634,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -1642,7 +1649,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -1655,7 +1662,7 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -1670,7 +1677,7 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1692,15 +1699,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -1709,7 +1716,7 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
@@ -1724,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
     </row>
   </sheetData>
@@ -1967,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:E22"/>
   <sheetViews>
@@ -1975,7 +1982,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1984,10 +1991,10 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
@@ -2002,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2026,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2066,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2078,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A4:E8"/>
   <sheetViews>
@@ -2247,7 +2254,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2256,7 +2263,7 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
@@ -2271,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2283,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A5:E23"/>
   <sheetViews>
@@ -2338,7 +2345,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2347,7 +2354,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -2362,7 +2369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
@@ -2518,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2546,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2605,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:E8"/>
   <sheetViews>
@@ -2613,7 +2620,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -2622,7 +2629,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
@@ -2637,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2649,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,15 +2720,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
@@ -2729,7 +2736,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
@@ -2744,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>67</v>
       </c>
@@ -2755,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>69</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>70</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>71</v>
       </c>
